--- a/abc/canteen details.xlsx
+++ b/abc/canteen details.xlsx
@@ -5,25 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU papers\Year1\CZ1003\Mini Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\MiniProjectCZ1003-master (2)\MiniProjectCZ1003-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDBBBA-B7EC-41BB-B3B7-39942E24B9BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38A5F-FFEF-4281-83F3-66CFF8342257}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10488" windowHeight="6060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Canteen</t>
   </si>
@@ -194,6 +189,15 @@
     <t>In the middle of nowhere</t>
   </si>
   <si>
+    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, Singapore 639798</t>
+  </si>
+  <si>
+    <t>50 Nanyang Avenue, SS3-B4, Singapore 639798</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 76 Nanyang Drive, NS2.1-02-03/01A, Singapore 637331</t>
+  </si>
+  <si>
     <t>21 Nanyang Circle, Singapore 639778</t>
   </si>
   <si>
@@ -203,22 +207,16 @@
     <t>Bakery Cuisine</t>
   </si>
   <si>
-    <t>1234 5678</t>
-  </si>
-  <si>
-    <t>50 Nanyang Avenue, SS3-B4</t>
-  </si>
-  <si>
-    <t>North Spine Plaza, 76 Nanyang Drive, NS2.1-02-03/01A, 637331</t>
-  </si>
-  <si>
-    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, 639798</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Closed</t>
+    <t>Close hour</t>
+  </si>
+  <si>
+    <t>Open hour</t>
+  </si>
+  <si>
+    <t>Open min</t>
+  </si>
+  <si>
+    <t>Close min</t>
   </si>
 </sst>
 </file>
@@ -271,8 +269,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -291,13 +289,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>449580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1536701</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1432560</xdr:rowOff>
@@ -606,21 +604,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.796875" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,22 +635,28 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -669,22 +673,28 @@
         <v>13</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>310</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -701,22 +711,28 @@
         <v>13</v>
       </c>
       <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>446</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -733,22 +749,28 @@
         <v>13</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1838</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -765,22 +787,28 @@
         <v>14</v>
       </c>
       <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1050</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -797,22 +825,28 @@
         <v>13</v>
       </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>279</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="121.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -829,22 +863,28 @@
         <v>13</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>198</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -861,22 +901,28 @@
         <v>13</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>238</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -893,22 +939,28 @@
         <v>13</v>
       </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>298</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -925,22 +977,28 @@
         <v>13</v>
       </c>
       <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>179</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -957,22 +1015,28 @@
         <v>32</v>
       </c>
       <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1800</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -989,22 +1053,28 @@
         <v>13</v>
       </c>
       <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>350</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1021,22 +1091,28 @@
         <v>33</v>
       </c>
       <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>80</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1053,24 +1129,30 @@
         <v>13</v>
       </c>
       <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>498</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>276</v>
@@ -1078,44 +1160,44 @@
       <c r="C15">
         <v>266</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
-      <c r="J15">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{A7BAECBA-06E2-46CE-A2A2-65CC8B54265A}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{DF059ABC-A843-45DF-80F4-CC928607E728}"/>
-    <hyperlink ref="H5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
-    <hyperlink ref="H6" r:id="rId4" display="Canteen 9.png" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{69B7E168-F28B-4BA2-B37D-B2284DE3F659}"/>
-    <hyperlink ref="H8" r:id="rId6" display="Canteen 13" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
-    <hyperlink ref="H9" r:id="rId7" display="Canteen 14.png" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{230CAA60-183C-4735-96FB-50CDC8F28406}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{1F913D11-82FE-4D2D-98AD-4907016E14E3}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{7DBB7A45-C327-421E-AC41-FA8A01B246CF}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{2D5D6AF5-6FB3-4E84-B5DA-E803447CFBA5}"/>
-    <hyperlink ref="H2" r:id="rId12" xr:uid="{374CC952-BF34-4874-920C-F0140DE4F5E7}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{0893679D-A592-4B3C-A98B-0056AFCE3D6F}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{B76B6D37-71A7-4E78-B2D3-7A3E052D25EA}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" display="Canteen 9.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L8" r:id="rId6" display="Canteen 13" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" display="Canteen 14.png" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId15"/>

--- a/abc/canteen details.xlsx
+++ b/abc/canteen details.xlsx
@@ -5,20 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\MiniProjectCZ1003-master (2)\MiniProjectCZ1003-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C38A5F-FFEF-4281-83F3-66CFF8342257}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49093A6-3428-4228-9C5B-8882DFB7850C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10488" windowHeight="6060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>Canteen</t>
   </si>
@@ -186,18 +191,6 @@
     <t>Operating hours</t>
   </si>
   <si>
-    <t>In the middle of nowhere</t>
-  </si>
-  <si>
-    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, Singapore 639798</t>
-  </si>
-  <si>
-    <t>50 Nanyang Avenue, SS3-B4, Singapore 639798</t>
-  </si>
-  <si>
-    <t>North Spine Plaza, 76 Nanyang Drive, NS2.1-02-03/01A, Singapore 637331</t>
-  </si>
-  <si>
     <t>21 Nanyang Circle, Singapore 639778</t>
   </si>
   <si>
@@ -207,23 +200,59 @@
     <t>Bakery Cuisine</t>
   </si>
   <si>
-    <t>Close hour</t>
-  </si>
-  <si>
-    <t>Open hour</t>
-  </si>
-  <si>
-    <t>Open min</t>
-  </si>
-  <si>
-    <t>Close min</t>
+    <t>1234 5678</t>
+  </si>
+  <si>
+    <t>50 Nanyang Avenue, SS3-B4</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, 639798</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>24 Nanyang Ave, Singapore 639811</t>
+  </si>
+  <si>
+    <t>50 Nanyang Walk  
+Singapore 639929</t>
+  </si>
+  <si>
+    <t>1 Nanyang Walk, Singapore 637616</t>
+  </si>
+  <si>
+    <t>60 Nanyang Crescent, Singapore 636957​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 Nanyang Ave, Singapore 639816
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76 Nanyang Drive, Singapore 63731</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 76 Nanyang Drive, Singapore 637331</t>
+  </si>
+  <si>
+    <t>34 Nanyang Crescent,  
+Singapore 637634​</t>
+  </si>
+  <si>
+    <t>32 Nanyang Crescent, Singapore 637658</t>
+  </si>
+  <si>
+    <t>20 Nanyang Avenue, Singapore 639809</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +267,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,12 +302,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -289,13 +332,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>449580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1536701</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1432560</xdr:rowOff>
@@ -604,21 +647,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.796875" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,28 +678,22 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -673,28 +710,22 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v>310</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
         <v>21</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>310</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -711,28 +742,22 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v>446</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
         <v>21</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>446</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -749,28 +774,22 @@
         <v>13</v>
       </c>
       <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>1838</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <v>21</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1838</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -787,28 +806,22 @@
         <v>14</v>
       </c>
       <c r="F5">
+        <v>1050</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1050</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -825,28 +838,22 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>279</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
         <v>21</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>279</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -863,28 +870,22 @@
         <v>13</v>
       </c>
       <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+        <v>198</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
         <v>21</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>198</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -901,28 +902,22 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>238</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
         <v>21</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>238</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -939,28 +934,22 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+        <v>298</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
         <v>21</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>298</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -977,28 +966,22 @@
         <v>13</v>
       </c>
       <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+        <v>179</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
         <v>21</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>179</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1015,28 +998,22 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+        <v>1800</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
         <v>17</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1800</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1053,28 +1030,22 @@
         <v>13</v>
       </c>
       <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>350</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
         <v>21</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>350</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1091,28 +1062,22 @@
         <v>33</v>
       </c>
       <c r="F13">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
         <v>18</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1129,30 +1094,24 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+        <v>498</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
         <v>21</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>498</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>276</v>
@@ -1160,46 +1119,47 @@
       <c r="C15">
         <v>266</v>
       </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
         <v>21</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L6" r:id="rId4" display="Canteen 9.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L8" r:id="rId6" display="Canteen 13" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L9" r:id="rId7" display="Canteen 14.png" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{A7BAECBA-06E2-46CE-A2A2-65CC8B54265A}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{DF059ABC-A843-45DF-80F4-CC928607E728}"/>
+    <hyperlink ref="H5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
+    <hyperlink ref="H6" r:id="rId4" display="Canteen 9.png" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{69B7E168-F28B-4BA2-B37D-B2284DE3F659}"/>
+    <hyperlink ref="H8" r:id="rId6" display="Canteen 13" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
+    <hyperlink ref="H9" r:id="rId7" display="Canteen 14.png" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{230CAA60-183C-4735-96FB-50CDC8F28406}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{1F913D11-82FE-4D2D-98AD-4907016E14E3}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{7DBB7A45-C327-421E-AC41-FA8A01B246CF}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{2D5D6AF5-6FB3-4E84-B5DA-E803447CFBA5}"/>
+    <hyperlink ref="H2" r:id="rId12" xr:uid="{374CC952-BF34-4874-920C-F0140DE4F5E7}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{0893679D-A592-4B3C-A98B-0056AFCE3D6F}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{B76B6D37-71A7-4E78-B2D3-7A3E052D25EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>